--- a/REC가격 변동.xlsx
+++ b/REC가격 변동.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\금통\전력거래\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D916BC-4887-4714-8482-C5C2C6E3754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B026EE-2199-4C7C-BCE7-D7C3357B0DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28E8D507-D4B1-4096-A1BB-26FCF0623A5D}"/>
   </bookViews>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAA5ED0-F30D-4C02-84AD-49EB5BBDB918}">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5564,6 +5564,146 @@
         <v>74900</v>
       </c>
     </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>45435</v>
+      </c>
+      <c r="B160" s="1">
+        <v>134276</v>
+      </c>
+      <c r="C160" s="1">
+        <v>74972</v>
+      </c>
+      <c r="D160" s="1">
+        <v>75100</v>
+      </c>
+      <c r="E160" s="1">
+        <v>74900</v>
+      </c>
+      <c r="F160" s="1">
+        <v>26998</v>
+      </c>
+      <c r="G160" s="1">
+        <v>59327</v>
+      </c>
+      <c r="H160" s="1">
+        <v>85900</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A161" s="2">
+        <v>45440</v>
+      </c>
+      <c r="B161" s="1">
+        <v>193869</v>
+      </c>
+      <c r="C161" s="1">
+        <v>74945</v>
+      </c>
+      <c r="D161" s="1">
+        <v>75200</v>
+      </c>
+      <c r="E161" s="1">
+        <v>74500</v>
+      </c>
+      <c r="F161" s="1">
+        <v>830</v>
+      </c>
+      <c r="G161" s="1">
+        <v>62378</v>
+      </c>
+      <c r="H161" s="1">
+        <v>78500</v>
+      </c>
+      <c r="I161" s="1">
+        <v>44100</v>
+      </c>
+      <c r="J161" s="1">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>45442</v>
+      </c>
+      <c r="B162" s="1">
+        <v>202850</v>
+      </c>
+      <c r="C162" s="1">
+        <v>74943</v>
+      </c>
+      <c r="D162" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>74800</v>
+      </c>
+      <c r="F162" s="1">
+        <v>540</v>
+      </c>
+      <c r="G162" s="1">
+        <v>63330</v>
+      </c>
+      <c r="H162" s="1">
+        <v>75500</v>
+      </c>
+      <c r="I162" s="1">
+        <v>20700</v>
+      </c>
+      <c r="J162" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>45447</v>
+      </c>
+      <c r="B163" s="1">
+        <v>124277</v>
+      </c>
+      <c r="C163" s="1">
+        <v>74919</v>
+      </c>
+      <c r="D163" s="1">
+        <v>75000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>74900</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3862</v>
+      </c>
+      <c r="G163" s="1">
+        <v>70961</v>
+      </c>
+      <c r="H163" s="1">
+        <v>76900</v>
+      </c>
+      <c r="I163" s="1">
+        <v>50500</v>
+      </c>
+      <c r="J163" s="1">
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
